--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1968.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1968.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.004*"import" + 0.003*"exchange" + 0.002*"bank" + 0.002*"export" + 0.002*"account" + 0.002*"foreign" + 0.002*"may" + 0.002*"country" + 0.001*"currency" + 0.001*"per"</t>
-  </si>
-  <si>
-    <t>0.009*"import" + 0.008*"exchange" + 0.007*"foreign" + 0.007*"export" + 0.007*"bank" + 0.006*"may" + 0.006*"country" + 0.006*"payment" + 0.005*"currency" + 0.005*"license"</t>
-  </si>
-  <si>
-    <t>0.022*"import" + 0.015*"exchange" + 0.014*"foreign" + 0.014*"bank" + 0.013*"may" + 0.013*"export" + 0.011*"country" + 0.010*"payment" + 0.010*"account" + 0.010*"currency"</t>
-  </si>
-  <si>
-    <t>0.005*"import" + 0.004*"foreign" + 0.004*"exchange" + 0.004*"bank" + 0.003*"export" + 0.003*"country" + 0.003*"license" + 0.003*"account" + 0.003*"may" + 0.003*"payment"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.002*"foreign" + 0.002*"bank" + 0.001*"exchange" + 0.001*"may" + 0.001*"export" + 0.001*"country" + 0.001*"license" + 0.001*"per" + 0.001*"payment"</t>
+    <t>0.079*"import" + 0.034*"license" + 0.027*"export" + 0.019*"payment" + 0.019*"require" + 0.015*"exchange" + 0.015*"good" + 0.013*"country" + 0.011*"issue" + 0.010*"value"</t>
+  </si>
+  <si>
+    <t>0.052*"may" + 0.033*"foreign" + 0.029*"account" + 0.024*"resident" + 0.020*"payment" + 0.018*"nonresident" + 0.017*"currency" + 0.017*"capital" + 0.016*"freely" + 0.015*"investment"</t>
+  </si>
+  <si>
+    <t>0.057*"bank" + 0.029*"exchange" + 0.022*"export" + 0.022*"currency" + 0.016*"must" + 0.015*"proceeds" + 0.013*"authorize" + 0.013*"require" + 0.013*"foreign" + 0.012*"rate"</t>
+  </si>
+  <si>
+    <t>0.056*"per" + 0.037*"cent" + 0.021*"import" + 0.018*"tax" + 0.016*"u" + 0.013*"gold" + 0.012*"export" + 0.012*"certain" + 0.011*"year" + 0.011*"rate"</t>
+  </si>
+  <si>
+    <t>0.044*"area" + 0.044*"country" + 0.038*"sterling" + 0.029*"fund" + 0.022*"monetary" + 0.020*"account" + 0.019*"international" + 0.015*"franc" + 0.015*"control" + 0.014*"french"</t>
   </si>
 </sst>
 </file>
